--- a/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
@@ -52,7 +52,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:57:47+00:00</t>
+    <t>2025-07-16T13:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
@@ -52,7 +52,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:28:42+00:00</t>
+    <t>2025-07-16T13:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
@@ -52,7 +52,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:29:24+00:00</t>
+    <t>2025-07-16T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
@@ -52,7 +52,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:52:06+00:00</t>
+    <t>2025-07-17T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>CapacitesavoirfaireVs</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -52,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:35:50+00:00</t>
+    <t>2025-07-18T06:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,84 +278,86 @@
       <c r="A4" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -374,28 +379,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -417,28 +422,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T06:40:38+00:00</t>
+    <t>2025-07-21T11:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -103,10 +103,10 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://ansforge.github.io/IG-terminologie-de-sante/ig/main/CodeSystem-TRE-R43-CapaciteSavoirFaire</t>
-  </si>
-  <si>
-    <t>https://ansforge.github.io/IG-terminologie-de-sante/ig/main/CodeSystem-TRE-R01-EnsembleSavoirFaire-CISIS</t>
+    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R43-CapaciteSavoirFaire</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R01-EnsembleSavoirFaire-CISIS</t>
   </si>
 </sst>
 </file>

--- a/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:46+00:00</t>
+    <t>2025-07-21T14:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:08:48+00:00</t>
+    <t>2025-07-22T15:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T15:23:11+00:00</t>
+    <t>2025-07-23T06:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T06:24:09+00:00</t>
+    <t>2025-07-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T12:59:21+00:00</t>
+    <t>2025-07-24T13:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:05+00:00</t>
+    <t>2025-07-25T07:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -103,10 +103,10 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R43-CapaciteSavoirFaire</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R01-EnsembleSavoirFaire-CISIS</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R43-CapaciteSavoirFaire/FHIR/TRE-R43-CapaciteSavoirFaire</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R01-EnsembleSavoirFaire-CISIS/FHIR/TRE-R01-EnsembleSavoirFaire-CISIS</t>
   </si>
 </sst>
 </file>

--- a/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:22:51+00:00</t>
+    <t>2025-07-25T07:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:53:56+00:00</t>
+    <t>2025-07-25T12:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:35:19+00:00</t>
+    <t>2025-07-25T12:45:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:45:05+00:00</t>
+    <t>2025-07-25T12:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:50:30+00:00</t>
+    <t>2025-07-29T07:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:08:53+00:00</t>
+    <t>2025-07-31T13:33:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-capaciteSavoirFaire-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/capaciteSavoirFaire-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/capaciteSavoirFaire-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:33:48+00:00</t>
+    <t>2025-10-13T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
